--- a/DataTables/Datas/player.xlsx
+++ b/DataTables/Datas/player.xlsx
@@ -145,12 +145,18 @@
     <t>勇士</t>
   </si>
   <si>
+    <t>1D6</t>
+  </si>
+  <si>
+    <t>image/hero</t>
+  </si>
+  <si>
+    <t>1D7</t>
+  </si>
+  <si>
     <t>1D8</t>
   </si>
   <si>
-    <t>image/hero</t>
-  </si>
-  <si>
     <t>1D9</t>
   </si>
   <si>
@@ -245,12 +251,6 @@
   </si>
   <si>
     <t>1D40</t>
-  </si>
-  <si>
-    <t>1D41</t>
-  </si>
-  <si>
-    <t>1D42</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F6" sqref="F6:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
         <v>49</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
         <v>51</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
         <v>52</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
         <v>55</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
         <v>56</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
         <v>57</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>212</v>
+        <v>360</v>
       </c>
       <c r="G37" t="s">
         <v>58</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>213</v>
+        <v>370</v>
       </c>
       <c r="G38" t="s">
         <v>59</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
         <v>60</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>215</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
         <v>61</v>

--- a/DataTables/Datas/player.xlsx
+++ b/DataTables/Datas/player.xlsx
@@ -148,7 +148,7 @@
     <t>1D6</t>
   </si>
   <si>
-    <t>image/hero</t>
+    <t>image/fighter</t>
   </si>
   <si>
     <t>1D7</t>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F40"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1232,7 +1232,7 @@
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="13.1333333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
